--- a/Results/HW4.xlsx
+++ b/Results/HW4.xlsx
@@ -378,14 +378,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,17 +396,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +715,7 @@
   <dimension ref="C2:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:R3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,13 +752,13 @@
       <c r="R3" s="8"/>
     </row>
     <row r="5" spans="3:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -835,13 +835,13 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
@@ -853,7 +853,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3">
@@ -881,7 +881,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3">
@@ -909,7 +909,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="3">
@@ -937,7 +937,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="3">
@@ -956,13 +956,13 @@
       </c>
     </row>
     <row r="32" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -985,8 +985,8 @@
   <dimension ref="C2:R141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,41 +996,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="5" spans="3:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
@@ -1049,9 +1049,18 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
+      <c r="J7">
+        <v>1262</v>
+      </c>
+      <c r="K7">
+        <v>1376</v>
+      </c>
+      <c r="L7">
+        <v>491</v>
+      </c>
     </row>
     <row r="8" spans="3:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3">
@@ -1062,11 +1071,29 @@
       </c>
       <c r="F8" s="3">
         <v>800</v>
+      </c>
+      <c r="J8">
+        <v>1184</v>
+      </c>
+      <c r="K8">
+        <v>943</v>
+      </c>
+      <c r="L8">
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D9">
+        <v>1262</v>
+      </c>
+      <c r="E9">
+        <v>1376</v>
+      </c>
+      <c r="F9">
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="3:18" ht="15" x14ac:dyDescent="0.25">
@@ -1079,7 +1106,7 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="3:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3">
@@ -1090,11 +1117,38 @@
       </c>
       <c r="F11" s="3">
         <v>800</v>
+      </c>
+      <c r="J11">
+        <v>1476</v>
+      </c>
+      <c r="K11">
+        <v>1323</v>
+      </c>
+      <c r="L11">
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1184</v>
+      </c>
+      <c r="E12">
+        <v>943</v>
+      </c>
+      <c r="F12">
+        <v>440</v>
+      </c>
+      <c r="J12">
+        <v>1166</v>
+      </c>
+      <c r="K12">
+        <v>996</v>
+      </c>
+      <c r="L12">
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,7 +1161,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="3:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3">
@@ -1124,17 +1178,26 @@
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="e">
+      <c r="D15">
         <f>D12/D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" t="e">
+        <v>0.93819334389857367</v>
+      </c>
+      <c r="E15">
         <f t="shared" ref="E15:F15" si="0">E12/E9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" t="e">
+        <v>0.68531976744186052</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.89613034623217924</v>
+      </c>
+      <c r="J15">
+        <v>1217</v>
+      </c>
+      <c r="K15">
+        <v>1352</v>
+      </c>
+      <c r="L15">
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="3:18" ht="15" x14ac:dyDescent="0.25">
@@ -1145,8 +1208,17 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1127</v>
+      </c>
+      <c r="K16">
+        <v>729</v>
+      </c>
+      <c r="L16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
@@ -1155,8 +1227,8 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3">
@@ -1169,12 +1241,30 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1476</v>
+      </c>
+      <c r="E19">
+        <v>1323</v>
+      </c>
+      <c r="F19">
+        <v>485</v>
+      </c>
+      <c r="J19">
+        <v>1123</v>
+      </c>
+      <c r="K19">
+        <v>1372</v>
+      </c>
+      <c r="L19">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
@@ -1182,9 +1272,18 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
+      <c r="J20">
+        <v>1075</v>
+      </c>
+      <c r="K20">
+        <v>786</v>
+      </c>
+      <c r="L20">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="3">
@@ -1197,12 +1296,21 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1166</v>
+      </c>
+      <c r="E22">
+        <v>996</v>
+      </c>
+      <c r="F22">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
@@ -1211,8 +1319,8 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+    <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="3">
@@ -1225,24 +1333,24 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="e">
+      <c r="D25">
         <f>D22/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" t="e">
+        <v>0.78997289972899731</v>
+      </c>
+      <c r="E25">
         <f t="shared" ref="E25:F25" si="1">E22/E19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" t="e">
+        <v>0.75283446712018143</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+        <v>0.91958762886597933</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1359,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1260,8 +1368,8 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
+    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="3">
@@ -1274,12 +1382,21 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1217</v>
+      </c>
+      <c r="E29">
+        <v>1352</v>
+      </c>
+      <c r="F29">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1288,8 +1405,8 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+    <row r="31" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="3">
@@ -1302,9 +1419,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D32">
+        <v>1127</v>
+      </c>
+      <c r="E32">
+        <v>729</v>
+      </c>
+      <c r="F32">
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
@@ -1317,7 +1443,7 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="3">
@@ -1334,17 +1460,17 @@
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D35" t="e">
+      <c r="D35">
         <f>D32/D29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" t="e">
+        <v>0.92604765817584223</v>
+      </c>
+      <c r="E35">
         <f t="shared" ref="E35:F35" si="2">E32/E29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" t="e">
+        <v>0.53920118343195267</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
@@ -1366,7 +1492,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="3">
@@ -1382,6 +1508,15 @@
     <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D39">
+        <v>1123</v>
+      </c>
+      <c r="E39">
+        <v>1372</v>
+      </c>
+      <c r="F39">
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
@@ -1394,7 +1529,7 @@
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="3">
@@ -1410,6 +1545,15 @@
     <row r="42" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D42">
+        <v>1075</v>
+      </c>
+      <c r="E42">
+        <v>786</v>
+      </c>
+      <c r="F42">
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="15" x14ac:dyDescent="0.25">
@@ -1422,7 +1566,7 @@
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="3">
@@ -1439,49 +1583,49 @@
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D45" t="e">
+      <c r="D45">
         <f>D42/D39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" t="e">
+        <v>0.95725734639358862</v>
+      </c>
+      <c r="E45">
         <f t="shared" ref="E45:F45" si="3">E42/E39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" t="e">
+        <v>0.57288629737609331</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.81496881496881501</v>
       </c>
     </row>
     <row r="48" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
     </row>
     <row r="49" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="I49" s="13" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="I49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
@@ -1516,13 +1660,13 @@
       <c r="M51" s="9"/>
     </row>
     <row r="52" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J52" s="3">
@@ -1538,7 +1682,7 @@
       </c>
     </row>
     <row r="54" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="3">
@@ -1550,7 +1694,7 @@
       <c r="F54" s="3">
         <v>10</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J54" s="3">
@@ -1572,7 +1716,7 @@
       </c>
     </row>
     <row r="56" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="3">
@@ -1584,7 +1728,7 @@
       <c r="F56" s="3">
         <v>10</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J56" s="3">
@@ -1646,13 +1790,13 @@
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J59" s="3">
@@ -1668,7 +1812,7 @@
       </c>
     </row>
     <row r="61" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="3">
@@ -1680,7 +1824,7 @@
       <c r="F61" s="3">
         <v>10</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J61" s="3">
@@ -1702,7 +1846,7 @@
       </c>
     </row>
     <row r="63" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D63" s="3">
@@ -1714,7 +1858,7 @@
       <c r="F63" s="3">
         <v>10</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J63" s="3">
@@ -1776,13 +1920,13 @@
       <c r="M65" s="9"/>
     </row>
     <row r="66" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J66" s="3">
@@ -1798,7 +1942,7 @@
       </c>
     </row>
     <row r="68" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="3">
@@ -1810,7 +1954,7 @@
       <c r="F68" s="3">
         <v>10</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J68" s="3">
@@ -1832,7 +1976,7 @@
       </c>
     </row>
     <row r="70" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D70" s="3">
@@ -1844,7 +1988,7 @@
       <c r="F70" s="3">
         <v>10</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J70" s="3">
@@ -1922,13 +2066,13 @@
       <c r="M73" s="9"/>
     </row>
     <row r="74" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J74" s="3">
@@ -1944,7 +2088,7 @@
       </c>
     </row>
     <row r="76" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="3">
@@ -1956,7 +2100,7 @@
       <c r="F76" s="3">
         <v>10</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J76" s="3">
@@ -1978,7 +2122,7 @@
       </c>
     </row>
     <row r="78" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D78" s="3">
@@ -1990,7 +2134,7 @@
       <c r="F78" s="3">
         <v>10</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J78" s="3">
@@ -2052,13 +2196,13 @@
       <c r="M80" s="9"/>
     </row>
     <row r="81" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J81" s="3">
@@ -2074,7 +2218,7 @@
       </c>
     </row>
     <row r="83" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D83" s="3">
@@ -2086,7 +2230,7 @@
       <c r="F83" s="3">
         <v>10</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J83" s="3">
@@ -2108,7 +2252,7 @@
       </c>
     </row>
     <row r="85" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D85" s="3">
@@ -2120,7 +2264,7 @@
       <c r="F85" s="3">
         <v>10</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J85" s="3">
@@ -2182,13 +2326,13 @@
       <c r="M87" s="9"/>
     </row>
     <row r="88" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J88" s="3">
@@ -2204,7 +2348,7 @@
       </c>
     </row>
     <row r="90" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="3">
@@ -2216,7 +2360,7 @@
       <c r="F90" s="3">
         <v>10</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J90" s="3">
@@ -2238,7 +2382,7 @@
       </c>
     </row>
     <row r="92" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D92" s="3">
@@ -2250,7 +2394,7 @@
       <c r="F92" s="3">
         <v>10</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J92" s="3">
@@ -2296,35 +2440,35 @@
       </c>
     </row>
     <row r="96" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
     </row>
     <row r="97" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="I97" s="13" t="s">
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="I97" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
     </row>
     <row r="98" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
@@ -2359,13 +2503,13 @@
       <c r="M99" s="9"/>
     </row>
     <row r="100" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J100" s="3">
@@ -2381,7 +2525,7 @@
       </c>
     </row>
     <row r="102" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="3">
@@ -2393,7 +2537,7 @@
       <c r="F102" s="3">
         <v>10</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J102" s="3">
@@ -2415,7 +2559,7 @@
       </c>
     </row>
     <row r="104" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D104" s="3">
@@ -2427,7 +2571,7 @@
       <c r="F104" s="3">
         <v>10</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J104" s="3">
@@ -2489,13 +2633,13 @@
       <c r="M106" s="9"/>
     </row>
     <row r="107" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I107" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J107" s="3">
@@ -2511,7 +2655,7 @@
       </c>
     </row>
     <row r="109" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D109" s="3">
@@ -2523,7 +2667,7 @@
       <c r="F109" s="3">
         <v>10</v>
       </c>
-      <c r="I109" s="6" t="s">
+      <c r="I109" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J109" s="3">
@@ -2545,7 +2689,7 @@
       </c>
     </row>
     <row r="111" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D111" s="3">
@@ -2557,7 +2701,7 @@
       <c r="F111" s="3">
         <v>10</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="I111" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J111" s="3">
@@ -2619,13 +2763,13 @@
       <c r="M113" s="9"/>
     </row>
     <row r="114" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D114" s="3">
         <v>1</v>
       </c>
-      <c r="I114" s="6" t="s">
+      <c r="I114" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J114" s="3">
@@ -2641,7 +2785,7 @@
       </c>
     </row>
     <row r="116" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D116" s="3">
@@ -2653,7 +2797,7 @@
       <c r="F116" s="3">
         <v>10</v>
       </c>
-      <c r="I116" s="6" t="s">
+      <c r="I116" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J116" s="3">
@@ -2675,7 +2819,7 @@
       </c>
     </row>
     <row r="118" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D118" s="3">
@@ -2687,7 +2831,7 @@
       <c r="F118" s="3">
         <v>10</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="I118" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J118" s="3">
@@ -2765,13 +2909,13 @@
       <c r="M121" s="9"/>
     </row>
     <row r="122" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="I122" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J122" s="3">
@@ -2787,7 +2931,7 @@
       </c>
     </row>
     <row r="124" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D124" s="3">
@@ -2799,7 +2943,7 @@
       <c r="F124" s="3">
         <v>10</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="I124" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J124" s="3">
@@ -2821,7 +2965,7 @@
       </c>
     </row>
     <row r="126" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D126" s="3">
@@ -2833,7 +2977,7 @@
       <c r="F126" s="3">
         <v>10</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="I126" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J126" s="3">
@@ -2895,13 +3039,13 @@
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D129" s="3">
         <v>1</v>
       </c>
-      <c r="I129" s="6" t="s">
+      <c r="I129" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J129" s="3">
@@ -2917,7 +3061,7 @@
       </c>
     </row>
     <row r="131" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D131" s="3">
@@ -2929,7 +3073,7 @@
       <c r="F131" s="3">
         <v>10</v>
       </c>
-      <c r="I131" s="6" t="s">
+      <c r="I131" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J131" s="3">
@@ -2951,7 +3095,7 @@
       </c>
     </row>
     <row r="133" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D133" s="3">
@@ -2963,7 +3107,7 @@
       <c r="F133" s="3">
         <v>10</v>
       </c>
-      <c r="I133" s="6" t="s">
+      <c r="I133" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J133" s="3">
@@ -3025,13 +3169,13 @@
       <c r="M135" s="9"/>
     </row>
     <row r="136" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D136" s="3">
         <v>1</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="I136" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J136" s="3">
@@ -3047,7 +3191,7 @@
       </c>
     </row>
     <row r="138" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D138" s="3">
@@ -3059,7 +3203,7 @@
       <c r="F138" s="3">
         <v>10</v>
       </c>
-      <c r="I138" s="6" t="s">
+      <c r="I138" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J138" s="3">
@@ -3081,7 +3225,7 @@
       </c>
     </row>
     <row r="140" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D140" s="3">
@@ -3093,7 +3237,7 @@
       <c r="F140" s="3">
         <v>10</v>
       </c>
-      <c r="I140" s="6" t="s">
+      <c r="I140" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J140" s="3">
@@ -3140,23 +3284,29 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="I121:M121"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="I128:M128"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="I120:M120"/>
-    <mergeCell ref="C96:M96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="H2:R3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C48:M48"/>
     <mergeCell ref="C99:G99"/>
     <mergeCell ref="I99:M99"/>
     <mergeCell ref="C87:G87"/>
@@ -3173,29 +3323,23 @@
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H2:R3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C96:M96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="I120:M120"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="I121:M121"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="I128:M128"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="I135:M135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3204,14 +3348,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D8:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1262</v>
+      </c>
+      <c r="E8">
+        <v>1376</v>
+      </c>
+      <c r="F8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1184</v>
+      </c>
+      <c r="E9">
+        <v>943</v>
+      </c>
+      <c r="F9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1476</v>
+      </c>
+      <c r="E12">
+        <v>1323</v>
+      </c>
+      <c r="F12">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1166</v>
+      </c>
+      <c r="E13">
+        <v>996</v>
+      </c>
+      <c r="F13">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1217</v>
+      </c>
+      <c r="E16">
+        <v>1352</v>
+      </c>
+      <c r="F16">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1127</v>
+      </c>
+      <c r="E17">
+        <v>729</v>
+      </c>
+      <c r="F17">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1123</v>
+      </c>
+      <c r="E20">
+        <v>1372</v>
+      </c>
+      <c r="F20">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>1075</v>
+      </c>
+      <c r="E21">
+        <v>786</v>
+      </c>
+      <c r="F21">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/HW4.xlsx
+++ b/Results/HW4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CounterTests" sheetId="2" r:id="rId1"/>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,9 +984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,15 +1049,6 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="J7">
-        <v>1262</v>
-      </c>
-      <c r="K7">
-        <v>1376</v>
-      </c>
-      <c r="L7">
-        <v>491</v>
-      </c>
     </row>
     <row r="8" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
@@ -1071,15 +1062,6 @@
       </c>
       <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8">
-        <v>1184</v>
-      </c>
-      <c r="K8">
-        <v>943</v>
-      </c>
-      <c r="L8">
-        <v>440</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="15" x14ac:dyDescent="0.25">
@@ -1118,15 +1100,6 @@
       <c r="F11" s="3">
         <v>800</v>
       </c>
-      <c r="J11">
-        <v>1476</v>
-      </c>
-      <c r="K11">
-        <v>1323</v>
-      </c>
-      <c r="L11">
-        <v>485</v>
-      </c>
     </row>
     <row r="12" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
@@ -1140,15 +1113,6 @@
       </c>
       <c r="F12">
         <v>440</v>
-      </c>
-      <c r="J12">
-        <v>1166</v>
-      </c>
-      <c r="K12">
-        <v>996</v>
-      </c>
-      <c r="L12">
-        <v>446</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,15 +1154,6 @@
         <f t="shared" si="0"/>
         <v>0.89613034623217924</v>
       </c>
-      <c r="J15">
-        <v>1217</v>
-      </c>
-      <c r="K15">
-        <v>1352</v>
-      </c>
-      <c r="L15">
-        <v>473</v>
-      </c>
     </row>
     <row r="16" spans="3:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
@@ -1208,17 +1163,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="J16">
-        <v>1127</v>
-      </c>
-      <c r="K16">
-        <v>729</v>
-      </c>
-      <c r="L16">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
@@ -1227,7 +1173,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1187,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1254,17 +1200,8 @@
       <c r="F19">
         <v>485</v>
       </c>
-      <c r="J19">
-        <v>1123</v>
-      </c>
-      <c r="K19">
-        <v>1372</v>
-      </c>
-      <c r="L19">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
@@ -1272,17 +1209,8 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="J20">
-        <v>1075</v>
-      </c>
-      <c r="K20">
-        <v>786</v>
-      </c>
-      <c r="L20">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1296,7 +1224,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1238,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1247,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1261,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1278,7 @@
         <v>0.91958762886597933</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1287,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1296,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1382,7 +1310,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1324,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1333,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
@@ -1419,7 +1347,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
@@ -3350,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Results/HW4.xlsx
+++ b/Results/HW4.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="27380" windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="CounterTests" sheetId="2" r:id="rId1"/>
     <sheet name="PacketTests" sheetId="1" r:id="rId2"/>
     <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>מחבר</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -31,7 +36,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>מחבר:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -50,17 +55,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="C96" authorId="0" shapeId="0">
+    <comment ref="C96" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>מחבר:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -84,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="36">
   <si>
     <t>n:</t>
   </si>
@@ -116,9 +121,6 @@
     <t>Lock Scaling  - Experiment #2</t>
   </si>
   <si>
-    <t>num of threads:</t>
-  </si>
-  <si>
     <t>Fairness  - Experiment #3</t>
   </si>
   <si>
@@ -137,7 +139,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -154,7 +156,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +194,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -209,7 +211,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,16 +230,41 @@
   <si>
     <t>Speedup with Exponential Load - Experiment #3</t>
   </si>
+  <si>
+    <t>Lock
+num of threads:</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>1 thread</t>
+  </si>
+  <si>
+    <t>SpeedUp (P/S)-</t>
+  </si>
+  <si>
+    <t>8 threads</t>
+  </si>
+  <si>
+    <t>64 threads</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,7 +272,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -254,14 +281,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +296,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +305,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +314,7 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +322,7 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -312,8 +339,24 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +399,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -365,11 +414,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +485,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,14 +500,49 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="35">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,6 +556,329 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>CounterTests!$C$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8 threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CounterTests!$D$27:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.256181028055587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00367402591296521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000806002028438438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backoff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>CounterTests!$C$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8 threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CounterTests!$E$27:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.260036404424951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.170395545495456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0875586870226957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CLH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>CounterTests!$C$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8 threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CounterTests!$F$27:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0917028807855833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000597784837758508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.37334685625625E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>CounterTests!$C$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 thread</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8 threads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CounterTests!$G$27:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.134098587481445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00361357576083233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000275384026383133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2081264824"/>
+        <c:axId val="-2081270216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2081264824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2081270216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2081270216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2081264824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +959,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,20 +1168,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R32"/>
+  <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:18">
       <c r="H2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -738,7 +1195,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18">
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -751,7 +1208,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="5" spans="3:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" ht="20.25" customHeight="1">
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -760,7 +1217,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -768,7 +1225,7 @@
         <v>148883</v>
       </c>
     </row>
-    <row r="9" spans="3:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:18">
       <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,7 +1239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:18">
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,7 +1256,7 @@
         <v>17559</v>
       </c>
     </row>
-    <row r="12" spans="3:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:18">
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
@@ -813,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:18">
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -834,7 +1291,7 @@
         <v>0.11793824681125448</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
@@ -843,140 +1300,276 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+    <row r="19" spans="2:7" ht="28">
+      <c r="C19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>38141</v>
+      </c>
+      <c r="E20">
+        <v>38715</v>
+      </c>
+      <c r="F20">
+        <v>13653</v>
+      </c>
+      <c r="G20">
+        <v>19965</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>547</v>
+      </c>
+      <c r="E21">
+        <v>25369</v>
+      </c>
+      <c r="F21">
+        <v>89</v>
+      </c>
+      <c r="G21">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>13036</v>
+      </c>
+      <c r="F22">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+      <c r="G22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" customHeight="1">
+      <c r="B26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>8</v>
-      </c>
-      <c r="F28" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="14" customHeight="1">
+      <c r="B27" s="16"/>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <f>D20/$D$6</f>
+        <v>0.25618102805558729</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:G27" si="1">E20/$D$6</f>
+        <v>0.26003640442495113</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>9.1702880785583307E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.13409858748144515</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="16"/>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:G29" si="2">D21/$D$6</f>
+        <v>3.6740259129652143E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.17039554549545616</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>5.9778483775850837E-4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>3.6135757608323315E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>8.0600202843843824E-4</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>8.7558687022695675E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>5.3733468562562552E-5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>2.7538402638313308E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C32:G32"/>
+  <mergeCells count="5">
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C31:G31"/>
     <mergeCell ref="H2:R3"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -984,46 +1577,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R141"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="5" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:18">
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="3:18">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="5" spans="3:18">
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1625,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18">
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1041,18 +1634,18 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="3:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18">
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="3:18">
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
         <v>25</v>
@@ -1064,9 +1657,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:18">
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>1262</v>
@@ -1078,18 +1671,18 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="3:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:18">
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="3:18">
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3">
         <v>25</v>
@@ -1101,9 +1694,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18">
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>1184</v>
@@ -1115,18 +1708,18 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:18" ht="14.25" customHeight="1">
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="3:18">
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>25</v>
@@ -1138,9 +1731,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:18">
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <f>D12/D9</f>
@@ -1155,27 +1748,27 @@
         <v>0.89613034623217924</v>
       </c>
     </row>
-    <row r="16" spans="3:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:18">
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7">
+      <c r="C17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="3:7">
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3">
         <v>25</v>
@@ -1187,9 +1780,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7">
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>1476</v>
@@ -1201,18 +1794,18 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7">
+      <c r="C20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="3:7">
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>25</v>
@@ -1224,9 +1817,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7">
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>1166</v>
@@ -1238,18 +1831,18 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7">
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="3:7">
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3">
         <v>25</v>
@@ -1261,9 +1854,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7">
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <f>D22/D19</f>
@@ -1278,7 +1871,7 @@
         <v>0.91958762886597933</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7">
       <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1287,18 +1880,18 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7">
+      <c r="C27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="3:7">
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3">
         <v>25</v>
@@ -1310,9 +1903,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7">
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>1217</v>
@@ -1324,18 +1917,18 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7">
+      <c r="C30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="3:7">
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3">
         <v>25</v>
@@ -1347,9 +1940,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7">
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>1127</v>
@@ -1361,18 +1954,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13">
+      <c r="C33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="3:13">
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3">
         <v>25</v>
@@ -1384,9 +1977,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13">
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <f>D32/D29</f>
@@ -1401,7 +1994,7 @@
         <v>0.76744186046511631</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13">
       <c r="C36" s="5" t="s">
         <v>4</v>
       </c>
@@ -1410,18 +2003,18 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13">
+      <c r="C37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="3:13">
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="3">
         <v>25</v>
@@ -1433,9 +2026,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13">
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>1123</v>
@@ -1447,18 +2040,18 @@
         <v>481</v>
       </c>
     </row>
-    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C40" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13">
+      <c r="C40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="3:13">
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3">
         <v>25</v>
@@ -1470,9 +2063,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:13">
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>1075</v>
@@ -1484,18 +2077,18 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:13">
+      <c r="C43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="3:13">
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3">
         <v>25</v>
@@ -1507,9 +2100,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="45" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:13">
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <f>D42/D39</f>
@@ -1524,9 +2117,9 @@
         <v>0.81496881496881501</v>
       </c>
     </row>
-    <row r="48" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:13">
       <c r="C48" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -1539,23 +2132,23 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C49" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="I49" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13">
+      <c r="C49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="I49" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="3:13">
       <c r="C50" s="5" t="s">
         <v>1</v>
       </c>
@@ -1571,23 +2164,23 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="I51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13">
+      <c r="C51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="I51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="3:13">
       <c r="C52" s="4" t="s">
         <v>0</v>
       </c>
@@ -1601,15 +2194,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13">
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
       <c r="C54" s="4" t="s">
         <v>0</v>
       </c>
@@ -1635,15 +2228,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13">
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
       <c r="C56" s="4" t="s">
         <v>0</v>
       </c>
@@ -1669,9 +2262,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:13">
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="e">
         <f>D55/$D$53</f>
@@ -1686,7 +2279,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J57" t="e">
         <f>J55/$J$53</f>
@@ -1701,23 +2294,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="I58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:13">
+      <c r="C58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="I58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="3:13">
       <c r="C59" s="4" t="s">
         <v>0</v>
       </c>
@@ -1731,15 +2324,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:13">
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
       <c r="C61" s="4" t="s">
         <v>0</v>
       </c>
@@ -1765,15 +2358,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:13">
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
       <c r="C63" s="4" t="s">
         <v>0</v>
       </c>
@@ -1799,9 +2392,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:13">
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="e">
         <f>D62/$D$60</f>
@@ -1816,7 +2409,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J64" t="e">
         <f>J62/$J$60</f>
@@ -1831,107 +2424,107 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
+    <row r="65" spans="3:13">
+      <c r="C65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="I65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>4</v>
+      </c>
+      <c r="L68" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <v>4</v>
+      </c>
+      <c r="L70" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="I65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-    </row>
-    <row r="66" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>4</v>
-      </c>
-      <c r="F68" s="3">
-        <v>10</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3">
-        <v>4</v>
-      </c>
-      <c r="L68" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4</v>
-      </c>
-      <c r="F70" s="3">
-        <v>10</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1</v>
-      </c>
-      <c r="K70" s="3">
-        <v>4</v>
-      </c>
-      <c r="L70" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D71" t="e">
         <f>D69/$D$67</f>
@@ -1946,7 +2539,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" t="e">
         <f>J69/$J$67</f>
@@ -1961,39 +2554,39 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:13">
       <c r="C72" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="I72" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="I73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:13">
+      <c r="C73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="I73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="3:13">
       <c r="C74" s="4" t="s">
         <v>0</v>
       </c>
@@ -2007,15 +2600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:13">
       <c r="C75" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
       <c r="C76" s="4" t="s">
         <v>0</v>
       </c>
@@ -2041,15 +2634,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:13">
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13">
       <c r="C78" s="4" t="s">
         <v>0</v>
       </c>
@@ -2075,9 +2668,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:13">
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" t="e">
         <f>D77/$D$75</f>
@@ -2092,7 +2685,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J79" t="e">
         <f>J77/$J$75</f>
@@ -2107,23 +2700,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C80" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="I80" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-    </row>
-    <row r="81" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:13">
+      <c r="C80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="I80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+    </row>
+    <row r="81" spans="3:13">
       <c r="C81" s="4" t="s">
         <v>0</v>
       </c>
@@ -2137,15 +2730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:13">
       <c r="C82" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
       <c r="C83" s="4" t="s">
         <v>0</v>
       </c>
@@ -2171,15 +2764,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:13">
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
       <c r="C85" s="4" t="s">
         <v>0</v>
       </c>
@@ -2205,9 +2798,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:13">
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D86" t="e">
         <f>D84/$D$82</f>
@@ -2222,7 +2815,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J86" t="e">
         <f>J84/$J$82</f>
@@ -2237,107 +2830,107 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="s">
+    <row r="87" spans="3:13">
+      <c r="C87" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="I87" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+    </row>
+    <row r="88" spans="3:13">
+      <c r="C88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13">
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13">
+      <c r="C90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>4</v>
+      </c>
+      <c r="F90" s="3">
+        <v>10</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3">
+        <v>4</v>
+      </c>
+      <c r="L90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13">
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13">
+      <c r="C92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>4</v>
+      </c>
+      <c r="F92" s="3">
+        <v>10</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3">
+        <v>4</v>
+      </c>
+      <c r="L92" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13">
+      <c r="C93" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="I87" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-    </row>
-    <row r="88" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C88" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C89" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C90" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="3">
-        <v>4</v>
-      </c>
-      <c r="F90" s="3">
-        <v>10</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>1</v>
-      </c>
-      <c r="K90" s="3">
-        <v>4</v>
-      </c>
-      <c r="L90" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C92" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3">
-        <v>4</v>
-      </c>
-      <c r="F92" s="3">
-        <v>10</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
-        <v>1</v>
-      </c>
-      <c r="K92" s="3">
-        <v>4</v>
-      </c>
-      <c r="L92" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D93" t="e">
         <f>D91/$D$89</f>
@@ -2352,7 +2945,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J93" t="e">
         <f>J91/$J$89</f>
@@ -2367,9 +2960,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:13">
       <c r="C96" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -2382,23 +2975,23 @@
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C97" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="I97" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-    </row>
-    <row r="98" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:13">
+      <c r="C97" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="I97" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+    </row>
+    <row r="98" spans="3:13">
       <c r="C98" s="5" t="s">
         <v>1</v>
       </c>
@@ -2414,23 +3007,23 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="I99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-    </row>
-    <row r="100" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:13">
+      <c r="C99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="I99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+    </row>
+    <row r="100" spans="3:13">
       <c r="C100" s="4" t="s">
         <v>0</v>
       </c>
@@ -2444,15 +3037,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:13">
       <c r="C101" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13">
       <c r="C102" s="4" t="s">
         <v>0</v>
       </c>
@@ -2478,15 +3071,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:13">
       <c r="C103" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13">
       <c r="C104" s="4" t="s">
         <v>0</v>
       </c>
@@ -2512,9 +3105,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:13">
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105" t="e">
         <f>D103/$D$101</f>
@@ -2529,7 +3122,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J105" t="e">
         <f>J103/$J$101</f>
@@ -2544,23 +3137,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C106" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="I106" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:13">
+      <c r="C106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="I106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+    </row>
+    <row r="107" spans="3:13">
       <c r="C107" s="4" t="s">
         <v>0</v>
       </c>
@@ -2574,15 +3167,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:13">
       <c r="C108" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13">
       <c r="C109" s="4" t="s">
         <v>0</v>
       </c>
@@ -2608,15 +3201,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:13">
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13">
       <c r="C111" s="4" t="s">
         <v>0</v>
       </c>
@@ -2642,9 +3235,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:13">
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D112" t="e">
         <f>D110/$D$108</f>
@@ -2659,7 +3252,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J112" t="e">
         <f>J110/$J$108</f>
@@ -2674,107 +3267,107 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C113" s="9" t="s">
+    <row r="113" spans="3:13">
+      <c r="C113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="I113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+    </row>
+    <row r="114" spans="3:13">
+      <c r="C114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13">
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13">
+      <c r="C116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>4</v>
+      </c>
+      <c r="F116" s="3">
+        <v>10</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>1</v>
+      </c>
+      <c r="K116" s="3">
+        <v>4</v>
+      </c>
+      <c r="L116" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13">
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13">
+      <c r="C118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>4</v>
+      </c>
+      <c r="F118" s="3">
+        <v>10</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <v>1</v>
+      </c>
+      <c r="K118" s="3">
+        <v>4</v>
+      </c>
+      <c r="L118" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13">
+      <c r="C119" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="I113" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-    </row>
-    <row r="114" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C114" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C116" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" s="3">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>4</v>
-      </c>
-      <c r="F116" s="3">
-        <v>10</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J116" s="3">
-        <v>1</v>
-      </c>
-      <c r="K116" s="3">
-        <v>4</v>
-      </c>
-      <c r="L116" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C118" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
-      <c r="E118" s="3">
-        <v>4</v>
-      </c>
-      <c r="F118" s="3">
-        <v>10</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3">
-        <v>1</v>
-      </c>
-      <c r="K118" s="3">
-        <v>4</v>
-      </c>
-      <c r="L118" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C119" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D119" t="e">
         <f>D117/$D$115</f>
@@ -2789,7 +3382,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J119" t="e">
         <f>J117/$J$115</f>
@@ -2804,39 +3397,39 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:13">
       <c r="C120" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="I120" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C121" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="I121" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-    </row>
-    <row r="122" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:13">
+      <c r="C121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="I121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+    </row>
+    <row r="122" spans="3:13">
       <c r="C122" s="4" t="s">
         <v>0</v>
       </c>
@@ -2850,15 +3443,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:13">
       <c r="C123" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13">
       <c r="C124" s="4" t="s">
         <v>0</v>
       </c>
@@ -2884,15 +3477,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:13">
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13">
       <c r="C126" s="4" t="s">
         <v>0</v>
       </c>
@@ -2918,9 +3511,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:13">
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D127" t="e">
         <f>D125/$D$123</f>
@@ -2935,7 +3528,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J127" t="e">
         <f>J125/$J$123</f>
@@ -2950,23 +3543,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C128" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="I128" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-    </row>
-    <row r="129" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:13">
+      <c r="C128" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="I128" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+    </row>
+    <row r="129" spans="3:13">
       <c r="C129" s="4" t="s">
         <v>0</v>
       </c>
@@ -2980,15 +3573,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:13">
       <c r="C130" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13">
       <c r="C131" s="4" t="s">
         <v>0</v>
       </c>
@@ -3014,15 +3607,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:13">
       <c r="C132" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13">
       <c r="C133" s="4" t="s">
         <v>0</v>
       </c>
@@ -3048,9 +3641,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:13">
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D134" t="e">
         <f>D132/$D$130</f>
@@ -3065,7 +3658,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J134" t="e">
         <f>J132/$J$130</f>
@@ -3080,107 +3673,107 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C135" s="9" t="s">
+    <row r="135" spans="3:13">
+      <c r="C135" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="I135" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+    </row>
+    <row r="136" spans="3:13">
+      <c r="C136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13">
+      <c r="C137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="3:13">
+      <c r="C138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3">
+        <v>4</v>
+      </c>
+      <c r="F138" s="3">
+        <v>10</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <v>1</v>
+      </c>
+      <c r="K138" s="3">
+        <v>4</v>
+      </c>
+      <c r="L138" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="3:13">
+      <c r="C139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="3:13">
+      <c r="C140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3">
+        <v>4</v>
+      </c>
+      <c r="F140" s="3">
+        <v>10</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>1</v>
+      </c>
+      <c r="K140" s="3">
+        <v>4</v>
+      </c>
+      <c r="L140" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="3:13">
+      <c r="C141" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="I135" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-    </row>
-    <row r="136" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C136" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J136" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C137" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C138" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="3">
-        <v>1</v>
-      </c>
-      <c r="E138" s="3">
-        <v>4</v>
-      </c>
-      <c r="F138" s="3">
-        <v>10</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J138" s="3">
-        <v>1</v>
-      </c>
-      <c r="K138" s="3">
-        <v>4</v>
-      </c>
-      <c r="L138" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C140" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" s="3">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3">
-        <v>4</v>
-      </c>
-      <c r="F140" s="3">
-        <v>10</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J140" s="3">
-        <v>1</v>
-      </c>
-      <c r="K140" s="3">
-        <v>4</v>
-      </c>
-      <c r="L140" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C141" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D141" t="e">
         <f>D139/$D$137</f>
@@ -3195,7 +3788,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J141" t="e">
         <f>J139/$J$137</f>
@@ -3212,29 +3805,23 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="H2:R3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="I121:M121"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="I128:M128"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="I120:M120"/>
+    <mergeCell ref="C96:M96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="I98:M98"/>
     <mergeCell ref="C99:G99"/>
     <mergeCell ref="I99:M99"/>
     <mergeCell ref="C87:G87"/>
@@ -3251,26 +3838,37 @@
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C96:M96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="I98:M98"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="I120:M120"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="I121:M121"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="I128:M128"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H2:R3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3282,9 +3880,9 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:6">
       <c r="D8">
         <v>1262</v>
       </c>
@@ -3295,7 +3893,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:6">
       <c r="D9">
         <v>1184</v>
       </c>
@@ -3306,7 +3904,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:6">
       <c r="D12">
         <v>1476</v>
       </c>
@@ -3317,7 +3915,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:6">
       <c r="D13">
         <v>1166</v>
       </c>
@@ -3328,7 +3926,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:6">
       <c r="D16">
         <v>1217</v>
       </c>
@@ -3339,7 +3937,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:6">
       <c r="D17">
         <v>1127</v>
       </c>
@@ -3350,7 +3948,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:6">
       <c r="D20">
         <v>1123</v>
       </c>
@@ -3361,7 +3959,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:6">
       <c r="D21">
         <v>1075</v>
       </c>
@@ -3374,5 +3972,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Results/HW4.xlsx
+++ b/Results/HW4.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="27380" windowHeight="15760"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="27380" windowHeight="15760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CounterTests" sheetId="2" r:id="rId1"/>
     <sheet name="PacketTests" sheetId="1" r:id="rId2"/>
     <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -225,9 +228,6 @@
     <t>SerialPacket (Pkt/ms)</t>
   </si>
   <si>
-    <t>W = 6000</t>
-  </si>
-  <si>
     <t>Speedup with Exponential Load - Experiment #3</t>
   </si>
   <si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>64 threads</t>
+  </si>
+  <si>
+    <t>W = 1600</t>
   </si>
 </sst>
 </file>
@@ -424,8 +427,38 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,8 +506,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,13 +522,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -500,15 +534,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -526,6 +559,21 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -543,6 +591,21 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,11 +855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2081264824"/>
-        <c:axId val="-2081270216"/>
+        <c:axId val="2124716904"/>
+        <c:axId val="2124720024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2081264824"/>
+        <c:axId val="2124716904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081270216"/>
+        <c:crossAx val="2124720024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -813,7 +876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081270216"/>
+        <c:axId val="2124720024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081264824"/>
+        <c:crossAx val="2124716904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,6 +904,965 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CounterTests!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11446.9862830722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12112.0093424873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3654.63663068488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8085.076264944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CounterTests!$F$34:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backoff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CounterTests!$E$38:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>803682.242123285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>575832.0809018241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>458418.311630902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238155.365303402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CounterTests!$F$38:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10014.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8052.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6842.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3909.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CLH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CounterTests!$E$42:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1059.52397182649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3017.7448637186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1767.0134584943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466.371348149733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CounterTests!$F$42:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CounterTests!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CounterTests!$E$46:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1341.23345749351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2976.46653716701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>737.866624311899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2542.10122164593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CounterTests!$F$46:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2131115704"/>
+        <c:axId val="2131336984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2131115704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2131336984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2131336984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2131115704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Idle Lock Overhead</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.784848484848485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.668135095447871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Beackoff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.751626256652868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.784717119764879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.852525252525253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CLH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$34:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$35:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.635879218472469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.581609195402299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.799154334038055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MCS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PacketTests!$D$45:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.654908877131099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.599545798637396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.773388773388773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135615560"/>
+        <c:axId val="2135624088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135615560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135624088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135624088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="1">
+                  <a:defRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>SpeedUp=HomeQueue/LockFree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135615560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -878,7 +1900,180 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CounterTests"/>
+      <sheetName val="PacketTests"/>
+      <sheetName val="גיליון3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="14">
+          <cell r="D14">
+            <v>25</v>
+          </cell>
+          <cell r="E14">
+            <v>200</v>
+          </cell>
+          <cell r="F14">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>0.7848484848484848</v>
+          </cell>
+          <cell r="E15">
+            <v>0.66813509544787075</v>
+          </cell>
+          <cell r="F15">
+            <v>0.86250000000000004</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>25</v>
+          </cell>
+          <cell r="E24">
+            <v>200</v>
+          </cell>
+          <cell r="F24">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>0.75162625665286809</v>
+          </cell>
+          <cell r="E25">
+            <v>0.78471711976487879</v>
+          </cell>
+          <cell r="F25">
+            <v>0.85252525252525257</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>25</v>
+          </cell>
+          <cell r="E34">
+            <v>200</v>
+          </cell>
+          <cell r="F34">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>0.63587921847246887</v>
+          </cell>
+          <cell r="E35">
+            <v>0.58160919540229883</v>
+          </cell>
+          <cell r="F35">
+            <v>0.79915433403805491</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>25</v>
+          </cell>
+          <cell r="E44">
+            <v>200</v>
+          </cell>
+          <cell r="F44">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>0.65490887713109935</v>
+          </cell>
+          <cell r="E45">
+            <v>0.59954579863739588</v>
+          </cell>
+          <cell r="F45">
+            <v>0.77338877338877343</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57:N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1181,41 +2376,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:18">
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="5" spans="3:18" ht="20.25" customHeight="1">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="3:18">
       <c r="C6" s="2" t="s">
@@ -1292,17 +2487,17 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="28">
-      <c r="C19" s="14" t="s">
-        <v>28</v>
+      <c r="C19" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>1</v>
@@ -1319,7 +2514,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>38141</v>
@@ -1336,7 +2531,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>547</v>
@@ -1353,7 +2548,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>120</v>
@@ -1369,11 +2564,11 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="24" customHeight="1">
-      <c r="B26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>28</v>
+      <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -1389,9 +2584,9 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="14" customHeight="1">
-      <c r="B27" s="16"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <f>D20/$D$6</f>
@@ -1411,9 +2606,9 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="16"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:G29" si="2">D21/$D$6</f>
@@ -1433,9 +2628,9 @@
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="16"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
@@ -1455,103 +2650,200 @@
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="15" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="3:5">
+      <c r="E34">
+        <v>11446.9862830722</v>
+      </c>
+      <c r="F34">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="3:5">
+      <c r="E35">
+        <v>12112.009342487299</v>
+      </c>
+      <c r="F35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="3:5">
+      <c r="E36">
+        <v>3654.6366306848799</v>
+      </c>
+      <c r="F36">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
       <c r="C37" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:5">
+      <c r="E37">
+        <v>8085.0762649440003</v>
+      </c>
+      <c r="F37">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
       <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="3:5">
+      <c r="E38">
+        <v>803682.24212328496</v>
+      </c>
+      <c r="F38">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
       <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="3:5">
+      <c r="E39">
+        <v>575832.08090182405</v>
+      </c>
+      <c r="F39">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
       <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="3:5">
+      <c r="E40">
+        <v>458418.311630902</v>
+      </c>
+      <c r="F40">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
       <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="3:5">
+      <c r="E41">
+        <v>238155.36530340201</v>
+      </c>
+      <c r="F41">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="3:5">
+      <c r="E42">
+        <v>1059.52397182649</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="3:5">
+      <c r="E43">
+        <v>3017.7448637185998</v>
+      </c>
+      <c r="F43">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="3:5">
+      <c r="E44">
+        <v>1767.0134584943</v>
+      </c>
+      <c r="F44">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
       <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="3:5">
+      <c r="E45">
+        <v>466.37134814973302</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
       <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="3:5">
+      <c r="E46">
+        <v>1341.2334574935101</v>
+      </c>
+      <c r="F46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
       <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="3:5">
+      <c r="E47">
+        <v>2976.4665371670098</v>
+      </c>
+      <c r="F47">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
       <c r="C48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
+      <c r="E48">
+        <v>737.86662431189905</v>
+      </c>
+      <c r="F48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
       <c r="C49" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E49">
+        <v>2542.1012216459299</v>
+      </c>
+      <c r="F49">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1575,11 +2867,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R141"/>
+  <dimension ref="C2:S141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1589,50 +2881,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:18">
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="5" spans="3:18">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="3:18">
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="3:18">
       <c r="C7" s="11" t="s">
@@ -1662,13 +2954,13 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>1262</v>
+        <v>1650</v>
       </c>
       <c r="E9">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="F9">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="3:18">
@@ -1699,13 +2991,13 @@
         <v>15</v>
       </c>
       <c r="D12">
-        <v>1184</v>
+        <v>1295</v>
       </c>
       <c r="E12">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="F12">
-        <v>440</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="14.25" customHeight="1">
@@ -1737,25 +3029,25 @@
       </c>
       <c r="D15">
         <f>D12/D9</f>
-        <v>0.93819334389857367</v>
+        <v>0.7848484848484848</v>
       </c>
       <c r="E15">
         <f t="shared" ref="E15:F15" si="0">E12/E9</f>
-        <v>0.68531976744186052</v>
+        <v>0.66813509544787075</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.89613034623217924</v>
+        <v>0.86250000000000004</v>
       </c>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="11" t="s">
@@ -1785,13 +3077,13 @@
         <v>15</v>
       </c>
       <c r="D19">
-        <v>1476</v>
+        <v>1691</v>
       </c>
       <c r="E19">
-        <v>1323</v>
+        <v>1361</v>
       </c>
       <c r="F19">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -1822,13 +3114,13 @@
         <v>15</v>
       </c>
       <c r="D22">
-        <v>1166</v>
+        <v>1271</v>
       </c>
       <c r="E22">
-        <v>996</v>
+        <v>1068</v>
       </c>
       <c r="F22">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="3:7">
@@ -1860,25 +3152,25 @@
       </c>
       <c r="D25">
         <f>D22/D19</f>
-        <v>0.78997289972899731</v>
+        <v>0.75162625665286809</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:F25" si="1">E22/E19</f>
-        <v>0.75283446712018143</v>
+        <v>0.78471711976487879</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0.91958762886597933</v>
+        <v>0.85252525252525257</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="11" t="s">
@@ -1908,10 +3200,10 @@
         <v>15</v>
       </c>
       <c r="D29">
-        <v>1217</v>
+        <v>1689</v>
       </c>
       <c r="E29">
-        <v>1352</v>
+        <v>1305</v>
       </c>
       <c r="F29">
         <v>473</v>
@@ -1945,13 +3237,13 @@
         <v>15</v>
       </c>
       <c r="D32">
-        <v>1127</v>
+        <v>1074</v>
       </c>
       <c r="E32">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="F32">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="3:13">
@@ -1983,25 +3275,25 @@
       </c>
       <c r="D35">
         <f>D32/D29</f>
-        <v>0.92604765817584223</v>
+        <v>0.63587921847246887</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:F35" si="2">E32/E29</f>
-        <v>0.53920118343195267</v>
+        <v>0.58160919540229883</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0.76744186046511631</v>
+        <v>0.79915433403805491</v>
       </c>
     </row>
     <row r="36" spans="3:13">
-      <c r="C36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="C36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="3:13">
       <c r="C37" s="11" t="s">
@@ -2031,10 +3323,10 @@
         <v>15</v>
       </c>
       <c r="D39">
-        <v>1123</v>
+        <v>1701</v>
       </c>
       <c r="E39">
-        <v>1372</v>
+        <v>1321</v>
       </c>
       <c r="F39">
         <v>481</v>
@@ -2068,13 +3360,13 @@
         <v>15</v>
       </c>
       <c r="D42">
-        <v>1075</v>
+        <v>1114</v>
       </c>
       <c r="E42">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="F42">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="3:13">
@@ -2106,65 +3398,65 @@
       </c>
       <c r="D45">
         <f>D42/D39</f>
-        <v>0.95725734639358862</v>
+        <v>0.65490887713109935</v>
       </c>
       <c r="E45">
         <f t="shared" ref="E45:F45" si="3">E42/E39</f>
-        <v>0.57288629737609331</v>
+        <v>0.59954579863739588</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>0.81496881496881501</v>
+        <v>0.77338877338877343</v>
       </c>
     </row>
     <row r="48" spans="3:13">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="3:13">
-      <c r="C49" s="12" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="3:19">
+      <c r="C49" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="I49" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="3:13">
-      <c r="C50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="I50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="3:13">
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="I49" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="3:19">
+      <c r="C50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="I50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="3:19">
       <c r="C51" s="11" t="s">
         <v>13</v>
       </c>
@@ -2180,7 +3472,7 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="3:13">
+    <row r="52" spans="3:19">
       <c r="C52" s="4" t="s">
         <v>0</v>
       </c>
@@ -2194,15 +3486,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:13">
+    <row r="53" spans="3:19">
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="3:13">
+      <c r="J53">
+        <v>290</v>
+      </c>
+      <c r="Q53">
+        <v>256</v>
+      </c>
+      <c r="R53">
+        <v>239</v>
+      </c>
+      <c r="S53">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19">
       <c r="C54" s="4" t="s">
         <v>0</v>
       </c>
@@ -2227,8 +3531,17 @@
       <c r="L54" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:13">
+      <c r="Q54">
+        <v>267</v>
+      </c>
+      <c r="R54">
+        <v>240</v>
+      </c>
+      <c r="S54">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19">
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
@@ -2236,7 +3549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="3:13">
+    <row r="56" spans="3:19">
       <c r="C56" s="4" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +3575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:13">
+    <row r="57" spans="3:19">
       <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
@@ -2281,20 +3594,29 @@
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J57" t="e">
+      <c r="J57">
         <f>J55/$J$53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" t="e">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <f t="shared" ref="K57:L57" si="5">K55/$J$53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L57" t="e">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1005</v>
+      </c>
+      <c r="R57">
+        <v>462</v>
+      </c>
+      <c r="S57">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19">
       <c r="C58" s="11" t="s">
         <v>22</v>
       </c>
@@ -2309,8 +3631,17 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="3:13">
+      <c r="Q58">
+        <v>1028</v>
+      </c>
+      <c r="R58">
+        <v>416</v>
+      </c>
+      <c r="S58">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19">
       <c r="C59" s="4" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:13">
+    <row r="60" spans="3:19">
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
@@ -2332,7 +3663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="3:13">
+    <row r="61" spans="3:19">
       <c r="C61" s="4" t="s">
         <v>0</v>
       </c>
@@ -2357,16 +3688,34 @@
       <c r="L61" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="3:13">
+      <c r="Q61">
+        <v>1715</v>
+      </c>
+      <c r="R61">
+        <v>763</v>
+      </c>
+      <c r="S61">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19">
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="3:13">
+      <c r="Q62">
+        <v>1989</v>
+      </c>
+      <c r="R62">
+        <v>817</v>
+      </c>
+      <c r="S62">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19">
       <c r="C63" s="4" t="s">
         <v>0</v>
       </c>
@@ -2392,7 +3741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="3:13">
+    <row r="64" spans="3:19">
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
@@ -2555,20 +3904,20 @@
       </c>
     </row>
     <row r="72" spans="3:13">
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="I72" s="5" t="s">
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="I72" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
     </row>
     <row r="73" spans="3:13">
       <c r="C73" s="11" t="s">
@@ -2961,51 +4310,51 @@
       </c>
     </row>
     <row r="96" spans="3:13">
-      <c r="C96" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
+      <c r="C96" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
     </row>
     <row r="97" spans="3:13">
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="I97" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="I97" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
     </row>
     <row r="98" spans="3:13">
-      <c r="C98" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="I98" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
+      <c r="C98" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="I98" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
     </row>
     <row r="99" spans="3:13">
       <c r="C99" s="11" t="s">
@@ -3398,20 +4747,20 @@
       </c>
     </row>
     <row r="120" spans="3:13">
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="I120" s="5" t="s">
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="I120" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
     </row>
     <row r="121" spans="3:13">
       <c r="C121" s="11" t="s">
@@ -3805,23 +5154,29 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="I121:M121"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="I128:M128"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="I120:M120"/>
-    <mergeCell ref="C96:M96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H2:R3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C48:M48"/>
     <mergeCell ref="C99:G99"/>
     <mergeCell ref="I99:M99"/>
     <mergeCell ref="C87:G87"/>
@@ -3838,32 +5193,28 @@
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H2:R3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C96:M96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="I120:M120"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="I121:M121"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="I128:M128"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="I135:M135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Results/HW4.xlsx
+++ b/Results/HW4.xlsx
@@ -427,8 +427,28 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -541,7 +561,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -574,6 +594,16 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -606,6 +636,16 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1873,15 +1913,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1902,16 +1942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2365,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57:N66"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2867,11 +2907,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:S141"/>
+  <dimension ref="C2:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3424,7 +3464,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="3:19">
+    <row r="49" spans="3:13">
       <c r="C49" s="13" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3480,7 @@
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="3:19">
+    <row r="50" spans="3:13">
       <c r="C50" s="12" t="s">
         <v>1</v>
       </c>
@@ -3456,7 +3496,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="3:19">
+    <row r="51" spans="3:13">
       <c r="C51" s="11" t="s">
         <v>13</v>
       </c>
@@ -3472,7 +3512,7 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="3:19">
+    <row r="52" spans="3:13">
       <c r="C52" s="4" t="s">
         <v>0</v>
       </c>
@@ -3486,27 +3526,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:19">
+    <row r="53" spans="3:13">
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D53">
+        <v>290</v>
+      </c>
       <c r="I53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J53">
         <v>290</v>
       </c>
-      <c r="Q53">
-        <v>256</v>
-      </c>
-      <c r="R53">
-        <v>239</v>
-      </c>
-      <c r="S53">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="3:19">
+    </row>
+    <row r="54" spans="3:13">
       <c r="C54" s="4" t="s">
         <v>0</v>
       </c>
@@ -3531,25 +3565,34 @@
       <c r="L54" s="3">
         <v>10</v>
       </c>
-      <c r="Q54">
-        <v>267</v>
-      </c>
-      <c r="R54">
-        <v>240</v>
-      </c>
-      <c r="S54">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19">
+    </row>
+    <row r="55" spans="3:13">
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D55">
+        <v>258</v>
+      </c>
+      <c r="E55">
+        <v>1017</v>
+      </c>
+      <c r="F55">
+        <v>1964</v>
+      </c>
       <c r="I55" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="3:19">
+      <c r="J55">
+        <v>395</v>
+      </c>
+      <c r="K55">
+        <v>1495</v>
+      </c>
+      <c r="L55">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
       <c r="C56" s="4" t="s">
         <v>0</v>
       </c>
@@ -3575,48 +3618,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:19">
+    <row r="57" spans="3:13">
       <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D57" t="e">
+      <c r="D57">
         <f>D55/$D$53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" t="e">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="E57">
         <f t="shared" ref="E57:F57" si="4">E55/$D$53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" t="e">
+        <v>3.5068965517241377</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.772413793103448</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J57">
         <f>J55/$J$53</f>
-        <v>0</v>
+        <v>1.3620689655172413</v>
       </c>
       <c r="K57">
         <f t="shared" ref="K57:L57" si="5">K55/$J$53</f>
-        <v>0</v>
+        <v>5.1551724137931032</v>
       </c>
       <c r="L57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>1005</v>
-      </c>
-      <c r="R57">
-        <v>462</v>
-      </c>
-      <c r="S57">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19">
+        <v>4.955172413793103</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
       <c r="C58" s="11" t="s">
         <v>22</v>
       </c>
@@ -3631,17 +3665,8 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-      <c r="Q58">
-        <v>1028</v>
-      </c>
-      <c r="R58">
-        <v>416</v>
-      </c>
-      <c r="S58">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19">
+    </row>
+    <row r="59" spans="3:13">
       <c r="C59" s="4" t="s">
         <v>0</v>
       </c>
@@ -3655,15 +3680,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:19">
+    <row r="60" spans="3:13">
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D60">
+        <v>290</v>
+      </c>
       <c r="I60" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="3:19">
+      <c r="J60">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
       <c r="C61" s="4" t="s">
         <v>0</v>
       </c>
@@ -3688,34 +3719,34 @@
       <c r="L61" s="3">
         <v>10</v>
       </c>
-      <c r="Q61">
-        <v>1715</v>
-      </c>
-      <c r="R61">
-        <v>763</v>
-      </c>
-      <c r="S61">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19">
+    </row>
+    <row r="62" spans="3:13">
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D62">
+        <v>241</v>
+      </c>
+      <c r="E62">
+        <v>440</v>
+      </c>
+      <c r="F62">
+        <v>699</v>
+      </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q62">
-        <v>1989</v>
-      </c>
-      <c r="R62">
-        <v>817</v>
-      </c>
-      <c r="S62">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19">
+      <c r="J62">
+        <v>351</v>
+      </c>
+      <c r="K62">
+        <v>559</v>
+      </c>
+      <c r="L62">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
       <c r="C63" s="4" t="s">
         <v>0</v>
       </c>
@@ -3741,36 +3772,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="3:19">
+    <row r="64" spans="3:13">
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D64" t="e">
+      <c r="D64">
         <f>D62/$D$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64" t="e">
+        <v>0.83103448275862069</v>
+      </c>
+      <c r="E64">
         <f t="shared" ref="E64:F64" si="6">E62/$D$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" t="e">
+        <v>1.5172413793103448</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2.4103448275862069</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J64" t="e">
+      <c r="J64">
         <f>J62/$J$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" t="e">
+        <v>1.210344827586207</v>
+      </c>
+      <c r="K64">
         <f t="shared" ref="K64:L64" si="7">K62/$J$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L64" t="e">
+        <v>1.9275862068965517</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.1724137931034484</v>
       </c>
     </row>
     <row r="65" spans="3:13">
@@ -3807,8 +3838,14 @@
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D67">
+        <v>290</v>
+      </c>
       <c r="I67" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="J67">
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="3:13">
@@ -3841,8 +3878,26 @@
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D69">
+        <v>245</v>
+      </c>
+      <c r="E69">
+        <v>868</v>
+      </c>
+      <c r="F69">
+        <v>555</v>
+      </c>
       <c r="I69" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="J69">
+        <v>362</v>
+      </c>
+      <c r="K69">
+        <v>1097</v>
+      </c>
+      <c r="L69">
+        <v>603</v>
       </c>
     </row>
     <row r="70" spans="3:13">
@@ -3875,32 +3930,32 @@
       <c r="C71" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D71" t="e">
+      <c r="D71">
         <f>D69/$D$67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71" t="e">
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="E71">
         <f t="shared" ref="E71:F71" si="8">E69/$D$67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" t="e">
+        <v>2.9931034482758623</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.9137931034482758</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J71" t="e">
+      <c r="J71">
         <f>J69/$J$67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K71" t="e">
+        <v>1.2482758620689656</v>
+      </c>
+      <c r="K71">
         <f t="shared" ref="K71:L71" si="9">K69/$J$67</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L71" t="e">
+        <v>3.7827586206896551</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>2.079310344827586</v>
       </c>
     </row>
     <row r="72" spans="3:13">
@@ -3953,8 +4008,14 @@
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D75">
+        <v>290</v>
+      </c>
       <c r="I75" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="J75">
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="3:13">
@@ -3987,8 +4048,26 @@
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D77">
+        <v>261</v>
+      </c>
+      <c r="E77">
+        <v>1027</v>
+      </c>
+      <c r="F77">
+        <v>1534</v>
+      </c>
       <c r="I77" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="J77">
+        <v>401</v>
+      </c>
+      <c r="K77">
+        <v>1463</v>
+      </c>
+      <c r="L77">
+        <v>1573</v>
       </c>
     </row>
     <row r="78" spans="3:13">
@@ -4021,32 +4100,32 @@
       <c r="C79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D79" t="e">
+      <c r="D79">
         <f>D77/$D$75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E79" t="e">
+        <v>0.9</v>
+      </c>
+      <c r="E79">
         <f t="shared" ref="E79:F79" si="10">E77/$D$75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F79" t="e">
+        <v>3.5413793103448277</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>5.2896551724137932</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J79" t="e">
+      <c r="J79">
         <f>J77/$J$75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K79" t="e">
+        <v>1.3827586206896552</v>
+      </c>
+      <c r="K79">
         <f t="shared" ref="K79:L79" si="11">K77/$J$75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L79" t="e">
+        <v>5.044827586206897</v>
+      </c>
+      <c r="L79">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>5.4241379310344824</v>
       </c>
     </row>
     <row r="80" spans="3:13">
@@ -4083,8 +4162,14 @@
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D82">
+        <v>290</v>
+      </c>
       <c r="I82" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="J82">
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="3:13">
@@ -4117,8 +4202,26 @@
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D84">
+        <v>235</v>
+      </c>
+      <c r="E84">
+        <v>420</v>
+      </c>
+      <c r="F84">
+        <v>798</v>
+      </c>
       <c r="I84" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="J84">
+        <v>362</v>
+      </c>
+      <c r="K84">
+        <v>562</v>
+      </c>
+      <c r="L84">
+        <v>993</v>
       </c>
     </row>
     <row r="85" spans="3:13">
@@ -4151,32 +4254,32 @@
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D86" t="e">
+      <c r="D86">
         <f>D84/$D$82</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E86" t="e">
+        <v>0.81034482758620685</v>
+      </c>
+      <c r="E86">
         <f t="shared" ref="E86:F86" si="12">E84/$D$82</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F86" t="e">
+        <v>1.4482758620689655</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.7517241379310344</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J86" t="e">
+      <c r="J86">
         <f>J84/$J$82</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K86" t="e">
+        <v>1.2482758620689656</v>
+      </c>
+      <c r="K86">
         <f t="shared" ref="K86:L86" si="13">K84/$J$82</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L86" t="e">
+        <v>1.9379310344827587</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>3.4241379310344828</v>
       </c>
     </row>
     <row r="87" spans="3:13">
@@ -4213,8 +4316,14 @@
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D89">
+        <v>290</v>
+      </c>
       <c r="I89" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="J89">
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="3:13">
@@ -4247,8 +4356,26 @@
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D91">
+        <v>244</v>
+      </c>
+      <c r="E91">
+        <v>797</v>
+      </c>
+      <c r="F91">
+        <v>1415</v>
+      </c>
       <c r="I91" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="J91">
+        <v>344</v>
+      </c>
+      <c r="K91">
+        <v>1054</v>
+      </c>
+      <c r="L91">
+        <v>1367</v>
       </c>
     </row>
     <row r="92" spans="3:13">
@@ -4281,32 +4408,32 @@
       <c r="C93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D93" t="e">
+      <c r="D93">
         <f>D91/$D$89</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E93" t="e">
+        <v>0.8413793103448276</v>
+      </c>
+      <c r="E93">
         <f t="shared" ref="E93:F93" si="14">E91/$D$89</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F93" t="e">
+        <v>2.7482758620689656</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>4.8793103448275863</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J93" t="e">
+      <c r="J93">
         <f>J91/$J$89</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K93" t="e">
+        <v>1.1862068965517241</v>
+      </c>
+      <c r="K93">
         <f>K91/$J$89</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L93" t="e">
+        <v>3.6344827586206896</v>
+      </c>
+      <c r="L93">
         <f t="shared" ref="L93" si="15">L91/$J$89</f>
-        <v>#DIV/0!</v>
+        <v>4.7137931034482756</v>
       </c>
     </row>
     <row r="96" spans="3:13">
@@ -4402,10 +4529,10 @@
         <v>1</v>
       </c>
       <c r="E102" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>0</v>
@@ -4414,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="K102" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L102" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="3:13">
@@ -4436,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F104" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>0</v>
@@ -4448,10 +4575,10 @@
         <v>1</v>
       </c>
       <c r="K104" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L104" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="3:13">
@@ -4532,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="E109" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F109" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>0</v>
@@ -4544,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="K109" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L109" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="3:13">
@@ -4566,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F111" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>0</v>
@@ -4578,10 +4705,10 @@
         <v>1</v>
       </c>
       <c r="K111" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L111" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="3:13">
@@ -4662,10 +4789,10 @@
         <v>1</v>
       </c>
       <c r="E116" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F116" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>0</v>
@@ -4674,10 +4801,10 @@
         <v>1</v>
       </c>
       <c r="K116" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L116" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="3:13">
@@ -4696,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="E118" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F118" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>0</v>
@@ -4708,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="K118" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L118" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="3:13">
@@ -4796,6 +4923,9 @@
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D123">
+        <v>450</v>
+      </c>
       <c r="I123" s="2" t="s">
         <v>25</v>
       </c>
@@ -4808,10 +4938,10 @@
         <v>1</v>
       </c>
       <c r="E124" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F124" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>0</v>
@@ -4820,16 +4950,25 @@
         <v>1</v>
       </c>
       <c r="K124" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L124" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="3:13">
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D125">
+        <v>396</v>
+      </c>
+      <c r="E125">
+        <v>883</v>
+      </c>
+      <c r="F125">
+        <v>1288</v>
+      </c>
       <c r="I125" s="2" t="s">
         <v>15</v>
       </c>
@@ -4842,10 +4981,10 @@
         <v>1</v>
       </c>
       <c r="E126" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F126" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>0</v>
@@ -4854,27 +4993,27 @@
         <v>1</v>
       </c>
       <c r="K126" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L126" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="3:13">
       <c r="C127" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D127" t="e">
+      <c r="D127">
         <f>D125/$D$123</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E127" t="e">
+        <v>0.88</v>
+      </c>
+      <c r="E127">
         <f t="shared" ref="E127:F127" si="22">E125/$D$123</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F127" t="e">
+        <v>1.9622222222222223</v>
+      </c>
+      <c r="F127">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>2.862222222222222</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>24</v>
@@ -4926,6 +5065,9 @@
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D130">
+        <v>450</v>
+      </c>
       <c r="I130" s="2" t="s">
         <v>25</v>
       </c>
@@ -4938,10 +5080,10 @@
         <v>1</v>
       </c>
       <c r="E131" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F131" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>0</v>
@@ -4950,16 +5092,25 @@
         <v>1</v>
       </c>
       <c r="K131" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L131" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D132">
+        <v>351</v>
+      </c>
+      <c r="E132">
+        <v>517</v>
+      </c>
+      <c r="F132">
+        <v>945</v>
+      </c>
       <c r="I132" s="2" t="s">
         <v>15</v>
       </c>
@@ -4972,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="E133" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F133" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>0</v>
@@ -4984,27 +5135,27 @@
         <v>1</v>
       </c>
       <c r="K133" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L133" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D134" t="e">
+      <c r="D134">
         <f>D132/$D$130</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E134" t="e">
+        <v>0.78</v>
+      </c>
+      <c r="E134">
         <f t="shared" ref="E134:F134" si="24">E132/$D$130</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" t="e">
+        <v>1.1488888888888888</v>
+      </c>
+      <c r="F134">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>2.1</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>24</v>
@@ -5056,6 +5207,9 @@
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D137">
+        <v>450</v>
+      </c>
       <c r="I137" s="2" t="s">
         <v>25</v>
       </c>
@@ -5068,10 +5222,10 @@
         <v>1</v>
       </c>
       <c r="E138" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F138" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>0</v>
@@ -5080,16 +5234,25 @@
         <v>1</v>
       </c>
       <c r="K138" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L138" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="3:13">
       <c r="C139" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D139">
+        <v>354</v>
+      </c>
+      <c r="E139">
+        <v>733</v>
+      </c>
+      <c r="F139">
+        <v>1290</v>
+      </c>
       <c r="I139" s="2" t="s">
         <v>15</v>
       </c>
@@ -5102,10 +5265,10 @@
         <v>1</v>
       </c>
       <c r="E140" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F140" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>0</v>
@@ -5114,27 +5277,27 @@
         <v>1</v>
       </c>
       <c r="K140" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L140" s="3">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="3:13">
       <c r="C141" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D141" t="e">
+      <c r="D141">
         <f>D139/$D$137</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E141" t="e">
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="E141">
         <f t="shared" ref="E141:F141" si="26">E139/$D$137</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" t="e">
+        <v>1.6288888888888888</v>
+      </c>
+      <c r="F141">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>2.8666666666666667</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>24</v>
